--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4055"/>
+  <dimension ref="A1:B4057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7642,7 +7642,7 @@
         <v>38359</v>
       </c>
       <c r="B907">
-        <v>0.9718236595485777</v>
+        <v>0.971822461555091</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7650,7 +7650,7 @@
         <v>38362</v>
       </c>
       <c r="B908">
-        <v>0.9369991006029317</v>
+        <v>0.9369906794789262</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7658,7 +7658,7 @@
         <v>38363</v>
       </c>
       <c r="B909">
-        <v>0.9158058866271025</v>
+        <v>0.9157960304848025</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7666,7 +7666,7 @@
         <v>38364</v>
       </c>
       <c r="B910">
-        <v>0.9012101140305018</v>
+        <v>0.9012027525141911</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7674,7 +7674,7 @@
         <v>38365</v>
       </c>
       <c r="B911">
-        <v>0.8845297667277092</v>
+        <v>0.8845257275498911</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7682,7 +7682,7 @@
         <v>38366</v>
       </c>
       <c r="B912">
-        <v>0.8899616537422833</v>
+        <v>0.8899605659111484</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7690,7 +7690,7 @@
         <v>38369</v>
       </c>
       <c r="B913">
-        <v>0.9095544874112798</v>
+        <v>0.9095558351239879</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7698,7 +7698,7 @@
         <v>38370</v>
       </c>
       <c r="B914">
-        <v>0.9033170608885237</v>
+        <v>0.9033174558198455</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7706,7 +7706,7 @@
         <v>38371</v>
       </c>
       <c r="B915">
-        <v>0.8949119334042994</v>
+        <v>0.8949147857170039</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7714,7 +7714,7 @@
         <v>38372</v>
       </c>
       <c r="B916">
-        <v>0.8899657199444442</v>
+        <v>0.8899696122396245</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7722,7 +7722,7 @@
         <v>38373</v>
       </c>
       <c r="B917">
-        <v>0.8985826740541594</v>
+        <v>0.8985826168392614</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7730,7 +7730,7 @@
         <v>38376</v>
       </c>
       <c r="B918">
-        <v>0.9049139894956123</v>
+        <v>0.9049139146570973</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7738,7 +7738,7 @@
         <v>38377</v>
       </c>
       <c r="B919">
-        <v>0.8978146635721206</v>
+        <v>0.8978151372598374</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7746,7 +7746,7 @@
         <v>38378</v>
       </c>
       <c r="B920">
-        <v>0.8972780207405261</v>
+        <v>0.8972775687534353</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7754,7 +7754,7 @@
         <v>38379</v>
       </c>
       <c r="B921">
-        <v>0.89671229841585</v>
+        <v>0.8967131732913622</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7762,7 +7762,7 @@
         <v>38380</v>
       </c>
       <c r="B922">
-        <v>0.8943391579712818</v>
+        <v>0.8943396598891946</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7770,7 +7770,7 @@
         <v>38383</v>
       </c>
       <c r="B923">
-        <v>0.9071362204529464</v>
+        <v>0.9071370225454757</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7778,7 +7778,7 @@
         <v>38384</v>
       </c>
       <c r="B924">
-        <v>0.9028851005790477</v>
+        <v>0.9028855316442705</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7786,7 +7786,7 @@
         <v>38385</v>
       </c>
       <c r="B925">
-        <v>0.9387210560146064</v>
+        <v>0.9387213823486423</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7794,7 +7794,7 @@
         <v>38386</v>
       </c>
       <c r="B926">
-        <v>0.938262984292984</v>
+        <v>0.9382639674658495</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7802,7 +7802,7 @@
         <v>38387</v>
       </c>
       <c r="B927">
-        <v>0.9371745095003127</v>
+        <v>0.9371745272933497</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7810,7 +7810,7 @@
         <v>38399</v>
       </c>
       <c r="B928">
-        <v>0.9348647051221063</v>
+        <v>0.9348654470893667</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7818,7 +7818,7 @@
         <v>38400</v>
       </c>
       <c r="B929">
-        <v>0.924833217080379</v>
+        <v>0.9248350413246896</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7826,7 +7826,7 @@
         <v>38401</v>
       </c>
       <c r="B930">
-        <v>0.9235116585216894</v>
+        <v>0.9235133304587944</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7834,7 +7834,7 @@
         <v>38404</v>
       </c>
       <c r="B931">
-        <v>0.9236762970868341</v>
+        <v>0.9236782357624624</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7842,7 +7842,7 @@
         <v>38405</v>
       </c>
       <c r="B932">
-        <v>0.9243958404228765</v>
+        <v>0.924397808389543</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7850,7 +7850,7 @@
         <v>38406</v>
       </c>
       <c r="B933">
-        <v>0.9223305759145496</v>
+        <v>0.9223323003602092</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7858,7 +7858,7 @@
         <v>38407</v>
       </c>
       <c r="B934">
-        <v>0.9199315368268837</v>
+        <v>0.9199326157076421</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7866,7 +7866,7 @@
         <v>38408</v>
       </c>
       <c r="B935">
-        <v>0.9190021975933315</v>
+        <v>0.9190033300908416</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7874,7 +7874,7 @@
         <v>38411</v>
       </c>
       <c r="B936">
-        <v>0.9154790892653933</v>
+        <v>0.9154804790660753</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7882,7 +7882,7 @@
         <v>38412</v>
       </c>
       <c r="B937">
-        <v>0.9144092869033864</v>
+        <v>0.9144107118794135</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7890,7 +7890,7 @@
         <v>38413</v>
       </c>
       <c r="B938">
-        <v>0.9110721210879578</v>
+        <v>0.9110732706607444</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7898,7 +7898,7 @@
         <v>38414</v>
       </c>
       <c r="B939">
-        <v>0.9096898069397636</v>
+        <v>0.909690672442483</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7906,7 +7906,7 @@
         <v>38415</v>
       </c>
       <c r="B940">
-        <v>0.9086885784423774</v>
+        <v>0.9086893850555939</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7914,7 +7914,7 @@
         <v>38418</v>
       </c>
       <c r="B941">
-        <v>0.9064233586639991</v>
+        <v>0.9064243268307229</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7922,7 +7922,7 @@
         <v>38419</v>
       </c>
       <c r="B942">
-        <v>0.9071930856687805</v>
+        <v>0.9071937042928215</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7930,7 +7930,7 @@
         <v>38420</v>
       </c>
       <c r="B943">
-        <v>0.9048474689689603</v>
+        <v>0.9048482315619761</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7938,7 +7938,7 @@
         <v>38421</v>
       </c>
       <c r="B944">
-        <v>0.9097551867567963</v>
+        <v>0.9097559042511282</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7946,7 +7946,7 @@
         <v>38422</v>
       </c>
       <c r="B945">
-        <v>0.905300588056156</v>
+        <v>0.9053013390726037</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7954,7 +7954,7 @@
         <v>38425</v>
       </c>
       <c r="B946">
-        <v>0.9028937929385412</v>
+        <v>0.9028944395930329</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7962,7 +7962,7 @@
         <v>38426</v>
       </c>
       <c r="B947">
-        <v>0.9018502008999492</v>
+        <v>0.9018506690600683</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7970,7 +7970,7 @@
         <v>38427</v>
       </c>
       <c r="B948">
-        <v>0.9005876142815178</v>
+        <v>0.9005878220250535</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7978,7 +7978,7 @@
         <v>38428</v>
       </c>
       <c r="B949">
-        <v>0.8981302569643368</v>
+        <v>0.8981302616686186</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7986,7 +7986,7 @@
         <v>38429</v>
       </c>
       <c r="B950">
-        <v>0.8997557418837656</v>
+        <v>0.8997558448133293</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7994,7 +7994,7 @@
         <v>38432</v>
       </c>
       <c r="B951">
-        <v>0.8968805028107508</v>
+        <v>0.8968805955952557</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -8002,7 +8002,7 @@
         <v>38433</v>
       </c>
       <c r="B952">
-        <v>0.8956545136160162</v>
+        <v>0.8956546641687984</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8010,7 +8010,7 @@
         <v>38434</v>
       </c>
       <c r="B953">
-        <v>0.8896822308401636</v>
+        <v>0.8896823980009548</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8018,7 +8018,7 @@
         <v>38435</v>
       </c>
       <c r="B954">
-        <v>0.8888496010235655</v>
+        <v>0.8888498173717243</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8026,7 +8026,7 @@
         <v>38436</v>
       </c>
       <c r="B955">
-        <v>0.8876215379251965</v>
+        <v>0.8876217221459287</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8034,7 +8034,7 @@
         <v>38439</v>
       </c>
       <c r="B956">
-        <v>0.8866719811786425</v>
+        <v>0.8866721345872686</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8042,7 +8042,7 @@
         <v>38440</v>
       </c>
       <c r="B957">
-        <v>0.8864784760960467</v>
+        <v>0.8864786298581637</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8050,7 +8050,7 @@
         <v>38441</v>
       </c>
       <c r="B958">
-        <v>0.885969428371488</v>
+        <v>0.8859696083912824</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8058,7 +8058,7 @@
         <v>38442</v>
       </c>
       <c r="B959">
-        <v>0.8852150106733198</v>
+        <v>0.8852151144725634</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8066,7 +8066,7 @@
         <v>38443</v>
       </c>
       <c r="B960">
-        <v>0.8942392881274617</v>
+        <v>0.8942393178370726</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8074,7 +8074,7 @@
         <v>38446</v>
       </c>
       <c r="B961">
-        <v>0.8908220999693267</v>
+        <v>0.8908221200481129</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8082,7 +8082,7 @@
         <v>38447</v>
       </c>
       <c r="B962">
-        <v>0.8891220181612709</v>
+        <v>0.8891220272651412</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -32827,6 +32827,22 @@
       </c>
       <c r="B4055">
         <v>0.7569221761349614</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:2">
+      <c r="A4056" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B4056">
+        <v>0.7552909800294207</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:2">
+      <c r="A4057" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B4057">
+        <v>0.7566057043105744</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4057"/>
+  <dimension ref="A1:B4075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7642,7 +7642,7 @@
         <v>38359</v>
       </c>
       <c r="B907">
-        <v>0.971822461555091</v>
+        <v>0.9718278703053361</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7650,7 +7650,7 @@
         <v>38362</v>
       </c>
       <c r="B908">
-        <v>0.9369906794789262</v>
+        <v>0.9370277345987392</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7658,7 +7658,7 @@
         <v>38363</v>
       </c>
       <c r="B909">
-        <v>0.9157960304848025</v>
+        <v>0.9158477150459294</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7666,7 +7666,7 @@
         <v>38364</v>
       </c>
       <c r="B910">
-        <v>0.9012027525141911</v>
+        <v>0.9012298509111245</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7674,7 +7674,7 @@
         <v>38365</v>
       </c>
       <c r="B911">
-        <v>0.8845257275498911</v>
+        <v>0.8845719159711098</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7682,7 +7682,7 @@
         <v>38366</v>
       </c>
       <c r="B912">
-        <v>0.8899605659111484</v>
+        <v>0.8899720012863773</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7690,7 +7690,7 @@
         <v>38369</v>
       </c>
       <c r="B913">
-        <v>0.9095558351239879</v>
+        <v>0.9095737561521151</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7698,7 +7698,7 @@
         <v>38370</v>
       </c>
       <c r="B914">
-        <v>0.9033174558198455</v>
+        <v>0.9033362387280552</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7706,7 +7706,7 @@
         <v>38371</v>
       </c>
       <c r="B915">
-        <v>0.8949147857170039</v>
+        <v>0.8949368717320495</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7714,7 +7714,7 @@
         <v>38372</v>
       </c>
       <c r="B916">
-        <v>0.8899696122396245</v>
+        <v>0.889986019604959</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7722,7 +7722,7 @@
         <v>38373</v>
       </c>
       <c r="B917">
-        <v>0.8985826168392614</v>
+        <v>0.8986371338021467</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7730,7 +7730,7 @@
         <v>38376</v>
       </c>
       <c r="B918">
-        <v>0.9049139146570973</v>
+        <v>0.904964871970575</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7738,7 +7738,7 @@
         <v>38377</v>
       </c>
       <c r="B919">
-        <v>0.8978151372598374</v>
+        <v>0.8978731838977618</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7746,7 +7746,7 @@
         <v>38378</v>
       </c>
       <c r="B920">
-        <v>0.8972775687534353</v>
+        <v>0.8973375640840182</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7754,7 +7754,7 @@
         <v>38379</v>
       </c>
       <c r="B921">
-        <v>0.8967131732913622</v>
+        <v>0.8967741395124486</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7762,7 +7762,7 @@
         <v>38380</v>
       </c>
       <c r="B922">
-        <v>0.8943396598891946</v>
+        <v>0.8943972122220324</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7770,7 +7770,7 @@
         <v>38383</v>
       </c>
       <c r="B923">
-        <v>0.9071370225454757</v>
+        <v>0.9071840966142031</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7778,7 +7778,7 @@
         <v>38384</v>
       </c>
       <c r="B924">
-        <v>0.9028855316442705</v>
+        <v>0.9029294413144422</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7786,7 +7786,7 @@
         <v>38385</v>
       </c>
       <c r="B925">
-        <v>0.9387213823486423</v>
+        <v>0.9387494289660605</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7794,7 +7794,7 @@
         <v>38386</v>
       </c>
       <c r="B926">
-        <v>0.9382639674658495</v>
+        <v>0.9382933600430633</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7802,7 +7802,7 @@
         <v>38387</v>
       </c>
       <c r="B927">
-        <v>0.9371745272933497</v>
+        <v>0.9372028057274409</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7810,7 +7810,7 @@
         <v>38399</v>
       </c>
       <c r="B928">
-        <v>0.9348654470893667</v>
+        <v>0.9348891540961752</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7818,7 +7818,7 @@
         <v>38400</v>
       </c>
       <c r="B929">
-        <v>0.9248350413246896</v>
+        <v>0.9248528559619134</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7826,7 +7826,7 @@
         <v>38401</v>
       </c>
       <c r="B930">
-        <v>0.9235133304587944</v>
+        <v>0.9235294652429394</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7834,7 +7834,7 @@
         <v>38404</v>
       </c>
       <c r="B931">
-        <v>0.9236782357624624</v>
+        <v>0.9236932219099545</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7842,7 +7842,7 @@
         <v>38405</v>
       </c>
       <c r="B932">
-        <v>0.924397808389543</v>
+        <v>0.9244101613168356</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7850,7 +7850,7 @@
         <v>38406</v>
       </c>
       <c r="B933">
-        <v>0.9223323003602092</v>
+        <v>0.9223432430946559</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7858,7 +7858,7 @@
         <v>38407</v>
       </c>
       <c r="B934">
-        <v>0.9199326157076421</v>
+        <v>0.9199424062855315</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7866,7 +7866,7 @@
         <v>38408</v>
       </c>
       <c r="B935">
-        <v>0.9190033300908416</v>
+        <v>0.9190133332325731</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7874,7 +7874,7 @@
         <v>38411</v>
       </c>
       <c r="B936">
-        <v>0.9154804790660753</v>
+        <v>0.9154890460589458</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7882,7 +7882,7 @@
         <v>38412</v>
       </c>
       <c r="B937">
-        <v>0.9144107118794135</v>
+        <v>0.9144188451593659</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7890,7 +7890,7 @@
         <v>38413</v>
       </c>
       <c r="B938">
-        <v>0.9110732706607444</v>
+        <v>0.9110810637862259</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7898,7 +7898,7 @@
         <v>38414</v>
       </c>
       <c r="B939">
-        <v>0.909690672442483</v>
+        <v>0.9096984840202789</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7906,7 +7906,7 @@
         <v>38415</v>
       </c>
       <c r="B940">
-        <v>0.9086893850555939</v>
+        <v>0.9086963952037838</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7914,7 +7914,7 @@
         <v>38418</v>
       </c>
       <c r="B941">
-        <v>0.9064243268307229</v>
+        <v>0.9064305302739724</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7922,7 +7922,7 @@
         <v>38419</v>
       </c>
       <c r="B942">
-        <v>0.9071937042928215</v>
+        <v>0.9071970099477321</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7930,7 +7930,7 @@
         <v>38420</v>
       </c>
       <c r="B943">
-        <v>0.9048482315619761</v>
+        <v>0.9048514745765194</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7938,7 +7938,7 @@
         <v>38421</v>
       </c>
       <c r="B944">
-        <v>0.9097559042511282</v>
+        <v>0.9097586887399443</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7946,7 +7946,7 @@
         <v>38422</v>
       </c>
       <c r="B945">
-        <v>0.9053013390726037</v>
+        <v>0.905303238064603</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7954,7 +7954,7 @@
         <v>38425</v>
       </c>
       <c r="B946">
-        <v>0.9028944395930329</v>
+        <v>0.9028972963476166</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7962,7 +7962,7 @@
         <v>38426</v>
       </c>
       <c r="B947">
-        <v>0.9018506690600683</v>
+        <v>0.9018521873684789</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7970,7 +7970,7 @@
         <v>38427</v>
       </c>
       <c r="B948">
-        <v>0.9005878220250535</v>
+        <v>0.9005892787127481</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7978,7 +7978,7 @@
         <v>38428</v>
       </c>
       <c r="B949">
-        <v>0.8981302616686186</v>
+        <v>0.8981310018634857</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7986,7 +7986,7 @@
         <v>38429</v>
       </c>
       <c r="B950">
-        <v>0.8997558448133293</v>
+        <v>0.8997573004316843</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7994,7 +7994,7 @@
         <v>38432</v>
       </c>
       <c r="B951">
-        <v>0.8968805955952557</v>
+        <v>0.8968815340717929</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -8002,7 +8002,7 @@
         <v>38433</v>
       </c>
       <c r="B952">
-        <v>0.8956546641687984</v>
+        <v>0.8956558555702369</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8010,7 +8010,7 @@
         <v>38434</v>
       </c>
       <c r="B953">
-        <v>0.8896823980009548</v>
+        <v>0.8896841087110824</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8018,7 +8018,7 @@
         <v>38435</v>
       </c>
       <c r="B954">
-        <v>0.8888498173717243</v>
+        <v>0.8888512278042895</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8026,7 +8026,7 @@
         <v>38436</v>
       </c>
       <c r="B955">
-        <v>0.8876217221459287</v>
+        <v>0.8876228189159125</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8034,7 +8034,7 @@
         <v>38439</v>
       </c>
       <c r="B956">
-        <v>0.8866721345872686</v>
+        <v>0.8866729637383314</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8042,7 +8042,7 @@
         <v>38440</v>
       </c>
       <c r="B957">
-        <v>0.8864786298581637</v>
+        <v>0.8864795026368344</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8050,7 +8050,7 @@
         <v>38441</v>
       </c>
       <c r="B958">
-        <v>0.8859696083912824</v>
+        <v>0.8859704474113275</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8058,7 +8058,7 @@
         <v>38442</v>
       </c>
       <c r="B959">
-        <v>0.8852151144725634</v>
+        <v>0.8852157397673194</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8066,7 +8066,7 @@
         <v>38443</v>
       </c>
       <c r="B960">
-        <v>0.8942393178370726</v>
+        <v>0.8942396582457215</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8074,7 +8074,7 @@
         <v>38446</v>
       </c>
       <c r="B961">
-        <v>0.8908221200481129</v>
+        <v>0.8908223195932131</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8082,7 +8082,7 @@
         <v>38447</v>
       </c>
       <c r="B962">
-        <v>0.8891220272651412</v>
+        <v>0.8891221628803132</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -32843,6 +32843,150 @@
       </c>
       <c r="B4057">
         <v>0.7566057043105744</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:2">
+      <c r="A4058" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B4058">
+        <v>0.755640515571991</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:2">
+      <c r="A4059" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B4059">
+        <v>0.7545268926489431</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:2">
+      <c r="A4060" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B4060">
+        <v>0.7556587453995077</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:2">
+      <c r="A4061" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B4061">
+        <v>0.7510578299044144</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:2">
+      <c r="A4062" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B4062">
+        <v>0.7496986432703815</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:2">
+      <c r="A4063" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B4063">
+        <v>0.7527132443890787</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:2">
+      <c r="A4064" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B4064">
+        <v>0.7562958763296447</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:2">
+      <c r="A4065" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B4065">
+        <v>0.7535143756820978</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:2">
+      <c r="A4066" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B4066">
+        <v>0.7525058590189189</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:2">
+      <c r="A4067" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B4067">
+        <v>0.7524144446470837</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:2">
+      <c r="A4068" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B4068">
+        <v>0.7516135273939033</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:2">
+      <c r="A4069" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B4069">
+        <v>0.749999085347797</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:2">
+      <c r="A4070" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B4070">
+        <v>0.7465929012229352</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:2">
+      <c r="A4071" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B4071">
+        <v>0.746170863560176</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:2">
+      <c r="A4072" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B4072">
+        <v>0.7529978891695556</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:2">
+      <c r="A4073" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B4073">
+        <v>0.744208694280027</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:2">
+      <c r="A4074" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B4074">
+        <v>0.7383717915925512</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:2">
+      <c r="A4075" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B4075">
+        <v>0.7354053375342892</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4075"/>
+  <dimension ref="A1:B4105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7642,7 +7642,7 @@
         <v>38359</v>
       </c>
       <c r="B907">
-        <v>0.9718278703053361</v>
+        <v>0.9718142303200289</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7650,7 +7650,7 @@
         <v>38362</v>
       </c>
       <c r="B908">
-        <v>0.9370277345987392</v>
+        <v>0.93701795765397</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7658,7 +7658,7 @@
         <v>38363</v>
       </c>
       <c r="B909">
-        <v>0.9158477150459294</v>
+        <v>0.915843500974722</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7666,7 +7666,7 @@
         <v>38364</v>
       </c>
       <c r="B910">
-        <v>0.9012298509111245</v>
+        <v>0.9012207381222712</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7674,7 +7674,7 @@
         <v>38365</v>
       </c>
       <c r="B911">
-        <v>0.8845719159711098</v>
+        <v>0.88456721527125</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7682,7 +7682,7 @@
         <v>38366</v>
       </c>
       <c r="B912">
-        <v>0.8899720012863773</v>
+        <v>0.8899319146592746</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7690,7 +7690,7 @@
         <v>38369</v>
       </c>
       <c r="B913">
-        <v>0.9095737561521151</v>
+        <v>0.9094989205776451</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7698,7 +7698,7 @@
         <v>38370</v>
       </c>
       <c r="B914">
-        <v>0.9033362387280552</v>
+        <v>0.9032829467622676</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7706,7 +7706,7 @@
         <v>38371</v>
       </c>
       <c r="B915">
-        <v>0.8949368717320495</v>
+        <v>0.8948637574975418</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7714,7 +7714,7 @@
         <v>38372</v>
       </c>
       <c r="B916">
-        <v>0.889986019604959</v>
+        <v>0.8899037558421851</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7722,7 +7722,7 @@
         <v>38373</v>
       </c>
       <c r="B917">
-        <v>0.8986371338021467</v>
+        <v>0.8986079516503404</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7730,7 +7730,7 @@
         <v>38376</v>
       </c>
       <c r="B918">
-        <v>0.904964871970575</v>
+        <v>0.9049446299779885</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7738,7 +7738,7 @@
         <v>38377</v>
       </c>
       <c r="B919">
-        <v>0.8978731838977618</v>
+        <v>0.897845275392115</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7746,7 +7746,7 @@
         <v>38378</v>
       </c>
       <c r="B920">
-        <v>0.8973375640840182</v>
+        <v>0.8972954553839894</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7754,7 +7754,7 @@
         <v>38379</v>
       </c>
       <c r="B921">
-        <v>0.8967741395124486</v>
+        <v>0.8967279454488722</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7762,7 +7762,7 @@
         <v>38380</v>
       </c>
       <c r="B922">
-        <v>0.8943972122220324</v>
+        <v>0.8943470940332375</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7770,7 +7770,7 @@
         <v>38383</v>
       </c>
       <c r="B923">
-        <v>0.9071840966142031</v>
+        <v>0.9071336812280864</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7778,7 +7778,7 @@
         <v>38384</v>
       </c>
       <c r="B924">
-        <v>0.9029294413144422</v>
+        <v>0.9028774350339966</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7786,7 +7786,7 @@
         <v>38385</v>
       </c>
       <c r="B925">
-        <v>0.9387494289660605</v>
+        <v>0.9387373295470017</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7794,7 +7794,7 @@
         <v>38386</v>
       </c>
       <c r="B926">
-        <v>0.9382933600430633</v>
+        <v>0.9382774882172369</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7802,7 +7802,7 @@
         <v>38387</v>
       </c>
       <c r="B927">
-        <v>0.9372028057274409</v>
+        <v>0.9371930530745981</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7810,7 +7810,7 @@
         <v>38399</v>
       </c>
       <c r="B928">
-        <v>0.9348891540961752</v>
+        <v>0.9348797533332175</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7818,7 +7818,7 @@
         <v>38400</v>
       </c>
       <c r="B929">
-        <v>0.9248528559619134</v>
+        <v>0.9248485332045138</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7826,7 +7826,7 @@
         <v>38401</v>
       </c>
       <c r="B930">
-        <v>0.9235294652429394</v>
+        <v>0.9235233762750947</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7834,7 +7834,7 @@
         <v>38404</v>
       </c>
       <c r="B931">
-        <v>0.9236932219099545</v>
+        <v>0.9236902078321428</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7842,7 +7842,7 @@
         <v>38405</v>
       </c>
       <c r="B932">
-        <v>0.9244101613168356</v>
+        <v>0.9244091363322235</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7850,7 +7850,7 @@
         <v>38406</v>
       </c>
       <c r="B933">
-        <v>0.9223432430946559</v>
+        <v>0.9223437058416519</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7858,7 +7858,7 @@
         <v>38407</v>
       </c>
       <c r="B934">
-        <v>0.9199424062855315</v>
+        <v>0.9199430317275822</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7866,7 +7866,7 @@
         <v>38408</v>
       </c>
       <c r="B935">
-        <v>0.9190133332325731</v>
+        <v>0.9190133795920556</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7874,7 +7874,7 @@
         <v>38411</v>
       </c>
       <c r="B936">
-        <v>0.9154890460589458</v>
+        <v>0.9154875825181323</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7882,7 +7882,7 @@
         <v>38412</v>
       </c>
       <c r="B937">
-        <v>0.9144188451593659</v>
+        <v>0.9144176228595955</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7890,7 +7890,7 @@
         <v>38413</v>
       </c>
       <c r="B938">
-        <v>0.9110810637862259</v>
+        <v>0.9110763955706207</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7898,7 +7898,7 @@
         <v>38414</v>
       </c>
       <c r="B939">
-        <v>0.9096984840202789</v>
+        <v>0.9096947004045138</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7906,7 +7906,7 @@
         <v>38415</v>
       </c>
       <c r="B940">
-        <v>0.9086963952037838</v>
+        <v>0.9086923149031193</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7914,7 +7914,7 @@
         <v>38418</v>
       </c>
       <c r="B941">
-        <v>0.9064305302739724</v>
+        <v>0.9064274069735649</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7922,7 +7922,7 @@
         <v>38419</v>
       </c>
       <c r="B942">
-        <v>0.9071970099477321</v>
+        <v>0.9071985092743633</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7930,7 +7930,7 @@
         <v>38420</v>
       </c>
       <c r="B943">
-        <v>0.9048514745765194</v>
+        <v>0.9048524572315139</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7938,7 +7938,7 @@
         <v>38421</v>
       </c>
       <c r="B944">
-        <v>0.9097586887399443</v>
+        <v>0.9097582700181041</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7946,7 +7946,7 @@
         <v>38422</v>
       </c>
       <c r="B945">
-        <v>0.905303238064603</v>
+        <v>0.9053042143959967</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7954,7 +7954,7 @@
         <v>38425</v>
       </c>
       <c r="B946">
-        <v>0.9028972963476166</v>
+        <v>0.9028978604832137</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7962,7 +7962,7 @@
         <v>38426</v>
       </c>
       <c r="B947">
-        <v>0.9018521873684789</v>
+        <v>0.9018525148055324</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7970,7 +7970,7 @@
         <v>38427</v>
       </c>
       <c r="B948">
-        <v>0.9005892787127481</v>
+        <v>0.9005883983171298</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7978,7 +7978,7 @@
         <v>38428</v>
       </c>
       <c r="B949">
-        <v>0.8981310018634857</v>
+        <v>0.8981300362800981</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7986,7 +7986,7 @@
         <v>38429</v>
       </c>
       <c r="B950">
-        <v>0.8997573004316843</v>
+        <v>0.8997549949951491</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7994,7 +7994,7 @@
         <v>38432</v>
       </c>
       <c r="B951">
-        <v>0.8968815340717929</v>
+        <v>0.8968793826478761</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -8002,7 +8002,7 @@
         <v>38433</v>
       </c>
       <c r="B952">
-        <v>0.8956558555702369</v>
+        <v>0.8956525504474064</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8010,7 +8010,7 @@
         <v>38434</v>
       </c>
       <c r="B953">
-        <v>0.8896841087110824</v>
+        <v>0.8896804513909732</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8018,7 +8018,7 @@
         <v>38435</v>
       </c>
       <c r="B954">
-        <v>0.8888512278042895</v>
+        <v>0.8888480867570828</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8026,7 +8026,7 @@
         <v>38436</v>
       </c>
       <c r="B955">
-        <v>0.8876228189159125</v>
+        <v>0.8876196680057757</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8034,7 +8034,7 @@
         <v>38439</v>
       </c>
       <c r="B956">
-        <v>0.8866729637383314</v>
+        <v>0.8866700509236839</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8042,7 +8042,7 @@
         <v>38440</v>
       </c>
       <c r="B957">
-        <v>0.8864795026368344</v>
+        <v>0.8864768069336573</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8050,7 +8050,7 @@
         <v>38441</v>
       </c>
       <c r="B958">
-        <v>0.8859704474113275</v>
+        <v>0.8859678234024667</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8058,7 +8058,7 @@
         <v>38442</v>
       </c>
       <c r="B959">
-        <v>0.8852157397673194</v>
+        <v>0.8852139067870461</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8066,7 +8066,7 @@
         <v>38443</v>
       </c>
       <c r="B960">
-        <v>0.8942396582457215</v>
+        <v>0.894238857220282</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8074,7 +8074,7 @@
         <v>38446</v>
       </c>
       <c r="B961">
-        <v>0.8908223195932131</v>
+        <v>0.8908216355439051</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8082,7 +8082,7 @@
         <v>38447</v>
       </c>
       <c r="B962">
-        <v>0.8891221628803132</v>
+        <v>0.8891218010844406</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -32987,6 +32987,246 @@
       </c>
       <c r="B4075">
         <v>0.7354053375342892</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:2">
+      <c r="A4076" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B4076">
+        <v>0.7348803093441566</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:2">
+      <c r="A4077" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B4077">
+        <v>0.7350723326613402</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:2">
+      <c r="A4078" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B4078">
+        <v>0.7265786693281242</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:2">
+      <c r="A4079" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B4079">
+        <v>0.7250637416412207</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:2">
+      <c r="A4080" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B4080">
+        <v>0.7245455911512383</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:2">
+      <c r="A4081" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B4081">
+        <v>0.7224572571144431</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:2">
+      <c r="A4082" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B4082">
+        <v>0.7267725832743068</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:2">
+      <c r="A4083" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B4083">
+        <v>0.7246266800380002</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:2">
+      <c r="A4084" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B4084">
+        <v>0.7299749544436573</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:2">
+      <c r="A4085" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B4085">
+        <v>0.7480421771834755</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:2">
+      <c r="A4086" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B4086">
+        <v>0.7467027949192859</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:2">
+      <c r="A4087" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B4087">
+        <v>0.7435698469789466</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:2">
+      <c r="A4088" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B4088">
+        <v>0.7819917196729571</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:2">
+      <c r="A4089" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B4089">
+        <v>0.7846142540258835</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:2">
+      <c r="A4090" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B4090">
+        <v>0.7861734747657972</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:2">
+      <c r="A4091" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B4091">
+        <v>0.8055416677286641</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:2">
+      <c r="A4092" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B4092">
+        <v>0.8098570414554602</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:2">
+      <c r="A4093" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B4093">
+        <v>0.8121687261850895</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:2">
+      <c r="A4094" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B4094">
+        <v>0.8124119565232322</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:2">
+      <c r="A4095" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B4095">
+        <v>0.8196750677215542</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:2">
+      <c r="A4096" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B4096">
+        <v>0.8124091380073246</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:2">
+      <c r="A4097" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B4097">
+        <v>0.8165638034820029</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:2">
+      <c r="A4098" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B4098">
+        <v>0.8160301295521458</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:2">
+      <c r="A4099" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B4099">
+        <v>0.8156542890078412</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:2">
+      <c r="A4100" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B4100">
+        <v>0.8183693431051986</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:2">
+      <c r="A4101" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B4101">
+        <v>0.8180679668662555</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:2">
+      <c r="A4102" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B4102">
+        <v>0.816857313112894</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:2">
+      <c r="A4103" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B4103">
+        <v>0.8189362009019102</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:2">
+      <c r="A4104" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B4104">
+        <v>0.818615350426012</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:2">
+      <c r="A4105" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B4105">
+        <v>0.8175138854016678</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3397"/>
+  <dimension ref="A1:B3402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9718092154058067</v>
+        <v>0.9718002592345384</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9369957282198143</v>
+        <v>0.9369730433425451</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.915804778403679</v>
+        <v>0.9157757126541121</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9011776449679256</v>
+        <v>0.9011554767339434</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8845132233185007</v>
+        <v>0.8844903940125034</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8898810762376703</v>
+        <v>0.8898481120418512</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9094613688997325</v>
+        <v>0.909420763286138</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.903251779385593</v>
+        <v>0.9032176079603939</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8948325814617899</v>
+        <v>0.8947894331903876</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8898742563767237</v>
+        <v>0.8898307134400034</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8985767089387668</v>
+        <v>0.8985557291783038</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.9049187212136286</v>
+        <v>0.9049060622532407</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8978135066358558</v>
+        <v>0.8977944787124409</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8972623221072564</v>
+        <v>0.8972404262894577</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.8966930942350951</v>
+        <v>0.8966722005434596</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8943116992690542</v>
+        <v>0.8942882151731305</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9071028352305398</v>
+        <v>0.9070818347158782</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9028471246668881</v>
+        <v>0.902826855619521</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9387209103307019</v>
+        <v>0.9387134076802408</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9382614105861536</v>
+        <v>0.9382529919991187</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371789546097312</v>
+        <v>0.9371735907895541</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348667148145434</v>
+        <v>0.934862586193452</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9248366208237184</v>
+        <v>0.9248324901624816</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9235126410330171</v>
+        <v>0.9235079972718594</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236807586677883</v>
+        <v>0.9236772829258878</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9244010433945388</v>
+        <v>0.9243988135972013</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223373129415973</v>
+        <v>0.922335701402889</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199372305316905</v>
+        <v>0.9199356768417418</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9190075932377414</v>
+        <v>0.9190061806361381</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154828174140739</v>
+        <v>0.9154804068592564</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9144130348893623</v>
+        <v>0.9144109949109234</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110730721228507</v>
+        <v>0.9110708935126632</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.9096915694746081</v>
+        <v>0.9096898048558517</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086890908835923</v>
+        <v>0.9086872975638284</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064244031682662</v>
+        <v>0.906422702219557</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071953694666297</v>
+        <v>0.9071952797962043</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.904850121987305</v>
+        <v>0.9048499238604923</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097554381917798</v>
+        <v>0.9097544460390008</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.9053008857394875</v>
+        <v>0.905300198954693</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028951684063742</v>
+        <v>0.9028941270368107</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018495935990993</v>
+        <v>0.9018482239429143</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005858399835927</v>
+        <v>0.9005842785532753</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8981279043183543</v>
+        <v>0.8981262240456751</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997528661802456</v>
+        <v>0.8997511628399517</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968775765599618</v>
+        <v>0.8968763314340499</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956508741259853</v>
+        <v>0.8956492464689334</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896786337339423</v>
+        <v>0.8896768143469111</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888462235691963</v>
+        <v>0.888844753375242</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8876179868340139</v>
+        <v>0.8876167640350837</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866685364159669</v>
+        <v>0.8866674093024943</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864753601571005</v>
+        <v>0.8864742794730003</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859664671917967</v>
+        <v>0.8859654029906116</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8852129718572597</v>
+        <v>0.8852121946012014</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942383717348897</v>
+        <v>0.8942379953531576</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908213150166248</v>
+        <v>0.8908209894197958</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891216341077828</v>
+        <v>0.8891214597356962</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -27563,6 +27563,46 @@
       </c>
       <c r="B3397">
         <v>0.8137389199036171</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:2">
+      <c r="A3398" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B3398">
+        <v>0.8292487884189457</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:2">
+      <c r="A3399" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B3399">
+        <v>0.8289028649561057</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:2">
+      <c r="A3400" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B3400">
+        <v>0.8328859784424028</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:2">
+      <c r="A3401" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B3401">
+        <v>0.8330175530498841</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:2">
+      <c r="A3402" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B3402">
+        <v>0.8338460638500883</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3402"/>
+  <dimension ref="A1:B3410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9718002592345384</v>
+        <v>0.9718006021204283</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9369730433425451</v>
+        <v>0.9369694055030987</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.9157757126541121</v>
+        <v>0.9157621904069032</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9011554767339434</v>
+        <v>0.9011412374251188</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8844903940125034</v>
+        <v>0.8844745482466589</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8898481120418512</v>
+        <v>0.8898359831139681</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.909420763286138</v>
+        <v>0.9094154166528554</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.9032176079603939</v>
+        <v>0.9032106875454409</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8947894331903876</v>
+        <v>0.8947802301980196</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8898307134400034</v>
+        <v>0.8898231942033007</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8985557291783038</v>
+        <v>0.8985459642367774</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.9049060622532407</v>
+        <v>0.9048977965707927</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8977944787124409</v>
+        <v>0.8977827556545088</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8972404262894577</v>
+        <v>0.8972302086247783</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.8966722005434596</v>
+        <v>0.8966624032300823</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8942882151731305</v>
+        <v>0.8942788352574266</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9070818347158782</v>
+        <v>0.9070745811218328</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.902826855619521</v>
+        <v>0.9028200372411104</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9387134076802408</v>
+        <v>0.9387083870231987</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9382529919991187</v>
+        <v>0.9382485637181635</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371735907895541</v>
+        <v>0.9371702288714071</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.934862586193452</v>
+        <v>0.9348597547170912</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9248324901624816</v>
+        <v>0.9248293747187536</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9235079972718594</v>
+        <v>0.9235051854965777</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236772829258878</v>
+        <v>0.9236748112608508</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9243988135972013</v>
+        <v>0.9243966231498005</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.922335701402889</v>
+        <v>0.9223340584572323</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199356768417418</v>
+        <v>0.9199341923953335</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9190061806361381</v>
+        <v>0.9190043815298674</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154804068592564</v>
+        <v>0.9154789027440725</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9144109949109234</v>
+        <v>0.9144095885422573</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110708935126632</v>
+        <v>0.9110698119064377</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.9096898048558517</v>
+        <v>0.909688977355116</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086872975638284</v>
+        <v>0.9086867704619082</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.906422702219557</v>
+        <v>0.9064222870987813</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071952797962043</v>
+        <v>0.9071945911801365</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.9048499238604923</v>
+        <v>0.9048502927314342</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097544460390008</v>
+        <v>0.9097545349862838</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.905300198954693</v>
+        <v>0.9053000921572414</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028941270368107</v>
+        <v>0.9028945912277572</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018482239429143</v>
+        <v>0.901848528938652</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005842785532753</v>
+        <v>0.9005845847177086</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8981262240456751</v>
+        <v>0.898126718268934</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997511628399517</v>
+        <v>0.8997519927749673</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968763314340499</v>
+        <v>0.8968776116112229</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956492464689334</v>
+        <v>0.8956504649419619</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896768143469111</v>
+        <v>0.8896777878304963</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.888844753375242</v>
+        <v>0.8888454528632751</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8876167640350837</v>
+        <v>0.8876174330832952</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866674093024943</v>
+        <v>0.8866680833997587</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864742794730003</v>
+        <v>0.8864747804139536</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859654029906116</v>
+        <v>0.8859656675972977</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8852121946012014</v>
+        <v>0.8852124205014975</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942379953531576</v>
+        <v>0.8942382002179433</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908209894197958</v>
+        <v>0.8908211273710179</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891214597356962</v>
+        <v>0.8891215340373143</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -27603,6 +27603,70 @@
       </c>
       <c r="B3402">
         <v>0.8338460638500883</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:2">
+      <c r="A3403" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B3403">
+        <v>0.8373571534448472</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:2">
+      <c r="A3404" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B3404">
+        <v>0.8365203757022662</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:2">
+      <c r="A3405" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B3405">
+        <v>0.8361352806255212</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:2">
+      <c r="A3406" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B3406">
+        <v>0.835137801657295</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:2">
+      <c r="A3407" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B3407">
+        <v>0.8356147095333422</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:2">
+      <c r="A3408" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B3408">
+        <v>0.8370832759540335</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:2">
+      <c r="A3409" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B3409">
+        <v>0.83705001911605</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:2">
+      <c r="A3410" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B3410">
+        <v>0.8368073475150033</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3410"/>
+  <dimension ref="A1:B3442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9718006021204283</v>
+        <v>0.9717901043550559</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9369694055030987</v>
+        <v>0.9369766102073582</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.9157621904069032</v>
+        <v>0.9157720228481623</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9011412374251188</v>
+        <v>0.9011175683289401</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8844745482466589</v>
+        <v>0.8844565903106922</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8898359831139681</v>
+        <v>0.8897809357340631</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9094154166528554</v>
+        <v>0.9093297363653319</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.9032106875454409</v>
+        <v>0.9031616271976824</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8947802301980196</v>
+        <v>0.8947148777149077</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8898231942033007</v>
+        <v>0.8897268430612456</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8985459642367774</v>
+        <v>0.8984896981732682</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.9048977965707927</v>
+        <v>0.9048602113592077</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8977827556545088</v>
+        <v>0.8977484333999373</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8972302086247783</v>
+        <v>0.8971807534510482</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.8966624032300823</v>
+        <v>0.8966043248581841</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8942788352574266</v>
+        <v>0.8942119564034579</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9070745811218328</v>
+        <v>0.9070048635761742</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9028200372411104</v>
+        <v>0.9027450737934894</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9387083870231987</v>
+        <v>0.9386902861117042</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9382485637181635</v>
+        <v>0.9382279147358258</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371702288714071</v>
+        <v>0.937153159975803</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348597547170912</v>
+        <v>0.9348426696275879</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9248293747187536</v>
+        <v>0.9248114668889057</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9235051854965777</v>
+        <v>0.9234867100986072</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236748112608508</v>
+        <v>0.9236606191900782</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9243966231498005</v>
+        <v>0.9243879256496469</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223340584572323</v>
+        <v>0.9223290994897386</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199341923953335</v>
+        <v>0.9199298042168526</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9190043815298674</v>
+        <v>0.9190003117071602</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154789027440725</v>
+        <v>0.9154767860137614</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9144095885422573</v>
+        <v>0.9144074696949744</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110698119064377</v>
+        <v>0.9110665217686151</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.909688977355116</v>
+        <v>0.9096864862273252</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086867704619082</v>
+        <v>0.9086835275318799</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064222870987813</v>
+        <v>0.9064196978232711</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071945911801365</v>
+        <v>0.9071933211814622</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.9048502927314342</v>
+        <v>0.9048497902353114</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097545349862838</v>
+        <v>0.9097514099549285</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.9053000921572414</v>
+        <v>0.9052967516906022</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028945912277572</v>
+        <v>0.9028923833967757</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.901848528938652</v>
+        <v>0.9018449586437796</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005845847177086</v>
+        <v>0.9005799733878713</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.898126718268934</v>
+        <v>0.8981222706911557</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997519927749673</v>
+        <v>0.8997465791630577</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968776116112229</v>
+        <v>0.8968723436742465</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956504649419619</v>
+        <v>0.8956443494788942</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896777878304963</v>
+        <v>0.8896717138237509</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888454528632751</v>
+        <v>0.8888397173524516</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8876174330832952</v>
+        <v>0.8876118563745659</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866680833997587</v>
+        <v>0.8866631181742519</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864747804139536</v>
+        <v>0.8864701907873118</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859656675972977</v>
+        <v>0.8859612348514071</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8852124205014975</v>
+        <v>0.8852091095475492</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942382002179433</v>
+        <v>0.8942366484599954</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908211273710179</v>
+        <v>0.890819930855656</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891215340373143</v>
+        <v>0.8891209041285181</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -27667,6 +27667,262 @@
       </c>
       <c r="B3410">
         <v>0.8368073475150033</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:2">
+      <c r="A3411" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B3411">
+        <v>0.8378081916234051</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:2">
+      <c r="A3412" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B3412">
+        <v>0.8400208083589776</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:2">
+      <c r="A3413" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B3413">
+        <v>0.8409760343618726</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:2">
+      <c r="A3414" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B3414">
+        <v>0.8405501591408037</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:2">
+      <c r="A3415" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B3415">
+        <v>0.845066084177743</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:2">
+      <c r="A3416" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B3416">
+        <v>0.8496969431151618</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:2">
+      <c r="A3417" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B3417">
+        <v>0.8491599634812333</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:2">
+      <c r="A3418" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B3418">
+        <v>0.8538080299055733</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:2">
+      <c r="A3419" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B3419">
+        <v>0.854447346893738</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:2">
+      <c r="A3420" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B3420">
+        <v>0.858887606307925</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:2">
+      <c r="A3421" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B3421">
+        <v>0.8583126293965234</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:2">
+      <c r="A3422" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B3422">
+        <v>0.858479527082418</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:2">
+      <c r="A3423" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B3423">
+        <v>0.858833765584347</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:2">
+      <c r="A3424" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B3424">
+        <v>0.8572921992180195</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:2">
+      <c r="A3425" s="2">
+        <v>43227</v>
+      </c>
+      <c r="B3425">
+        <v>0.8601933143763851</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:2">
+      <c r="A3426" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B3426">
+        <v>0.8598127966108005</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:2">
+      <c r="A3427" s="2">
+        <v>43229</v>
+      </c>
+      <c r="B3427">
+        <v>0.8571773954212877</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:2">
+      <c r="A3428" s="2">
+        <v>43230</v>
+      </c>
+      <c r="B3428">
+        <v>0.8620687273024913</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:2">
+      <c r="A3429" s="2">
+        <v>43231</v>
+      </c>
+      <c r="B3429">
+        <v>0.861102673497065</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:2">
+      <c r="A3430" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B3430">
+        <v>0.8452946893530278</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:2">
+      <c r="A3431" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B3431">
+        <v>0.8479058805071535</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:2">
+      <c r="A3432" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B3432">
+        <v>0.8473699849676051</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:2">
+      <c r="A3433" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B3433">
+        <v>0.8335633641258473</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:2">
+      <c r="A3434" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B3434">
+        <v>0.8250727080188979</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:2">
+      <c r="A3435" s="2">
+        <v>43241</v>
+      </c>
+      <c r="B3435">
+        <v>0.8258642660287677</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:2">
+      <c r="A3436" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B3436">
+        <v>0.8245147879282402</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:2">
+      <c r="A3437" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B3437">
+        <v>0.8211217856643137</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:2">
+      <c r="A3438" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B3438">
+        <v>0.8208615503819663</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:2">
+      <c r="A3439" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B3439">
+        <v>0.8166636442693382</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:2">
+      <c r="A3440" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B3440">
+        <v>0.8159229004526901</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:2">
+      <c r="A3441" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B3441">
+        <v>0.813655281983251</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:2">
+      <c r="A3442" s="2">
+        <v>43250</v>
+      </c>
+      <c r="B3442">
+        <v>0.8234574774982204</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3442"/>
+  <dimension ref="A1:B3471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9717901043550559</v>
+        <v>0.9717893802450223</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9369766102073582</v>
+        <v>0.9369976560047689</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.9157720228481623</v>
+        <v>0.9157817087441882</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9011175683289401</v>
+        <v>0.9010872215871703</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8844565903106922</v>
+        <v>0.8844382057591555</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8897809357340631</v>
+        <v>0.8896657929285606</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9093297363653319</v>
+        <v>0.9091888690569869</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.9031616271976824</v>
+        <v>0.9030746499720818</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8947148777149077</v>
+        <v>0.8945853787186555</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8897268430612456</v>
+        <v>0.8895878579618401</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8984896981732682</v>
+        <v>0.8984357886086186</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.9048602113592077</v>
+        <v>0.904829997513534</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8977484333999373</v>
+        <v>0.8977136398719514</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8971807534510482</v>
+        <v>0.8971287696978814</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.8966043248581841</v>
+        <v>0.896533382041563</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8942119564034579</v>
+        <v>0.8941334620915093</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9070048635761742</v>
+        <v>0.9069207127551729</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9027450737934894</v>
+        <v>0.9026561967808878</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9386902861117042</v>
+        <v>0.9386740715909758</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9382279147358258</v>
+        <v>0.9382092285473947</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.937153159975803</v>
+        <v>0.9371432738873813</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348426696275879</v>
+        <v>0.9348325136578057</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9248114668889057</v>
+        <v>0.9248060457627387</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9234867100986072</v>
+        <v>0.9234796201987868</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236606191900782</v>
+        <v>0.9236582443184675</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9243879256496469</v>
+        <v>0.9243886021058911</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223290994897386</v>
+        <v>0.9223315268368673</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199298042168526</v>
+        <v>0.9199320359733799</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9190003117071602</v>
+        <v>0.9190020760027529</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154767860137614</v>
+        <v>0.9154776193971907</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9144074696949744</v>
+        <v>0.9144082814830347</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110665217686151</v>
+        <v>0.9110635360985995</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.9096864862273252</v>
+        <v>0.90968545181023</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086835275318799</v>
+        <v>0.9086813980978863</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064196978232711</v>
+        <v>0.9064191733014929</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071933211814622</v>
+        <v>0.9071943187737813</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.9048497902353114</v>
+        <v>0.9048533036065395</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097514099549285</v>
+        <v>0.909749603634501</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.9052967516906022</v>
+        <v>0.9052936115495109</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028923833967757</v>
+        <v>0.9028911608281226</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018449586437796</v>
+        <v>0.9018429357060059</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005799733878713</v>
+        <v>0.9005764048875635</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8981222706911557</v>
+        <v>0.8981177839621768</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997465791630577</v>
+        <v>0.8997400362300073</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968723436742465</v>
+        <v>0.8968657280419989</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956443494788942</v>
+        <v>0.8956364322137529</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896717138237509</v>
+        <v>0.8896635114516738</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888397173524516</v>
+        <v>0.8888326853155971</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8876118563745659</v>
+        <v>0.8876049712730493</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866631181742519</v>
+        <v>0.8866564330777994</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864701907873118</v>
+        <v>0.8864640481405097</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859612348514071</v>
+        <v>0.8859554185780877</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8852091095475492</v>
+        <v>0.8852048262704277</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942366484599954</v>
+        <v>0.8942349068468929</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.890819930855656</v>
+        <v>0.8908186076851679</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891209041285181</v>
+        <v>0.8891201764526089</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -27923,6 +27923,238 @@
       </c>
       <c r="B3442">
         <v>0.8234574774982204</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:2">
+      <c r="A3443" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B3443">
+        <v>0.8279781443674223</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:2">
+      <c r="A3444" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B3444">
+        <v>0.8291076231192243</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:2">
+      <c r="A3445" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B3445">
+        <v>0.8244984319309832</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:2">
+      <c r="A3446" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B3446">
+        <v>0.8268689405100813</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:2">
+      <c r="A3447" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B3447">
+        <v>0.8262016058902598</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:2">
+      <c r="A3448" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B3448">
+        <v>0.824964388616619</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:2">
+      <c r="A3449" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B3449">
+        <v>0.8237689213948997</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:2">
+      <c r="A3450" s="2">
+        <v>43262</v>
+      </c>
+      <c r="B3450">
+        <v>0.8207250431165463</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:2">
+      <c r="A3451" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B3451">
+        <v>0.8236938858454772</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:2">
+      <c r="A3452" s="2">
+        <v>43264</v>
+      </c>
+      <c r="B3452">
+        <v>0.8269133147121073</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:2">
+      <c r="A3453" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B3453">
+        <v>0.8282069967692847</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:2">
+      <c r="A3454" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B3454">
+        <v>0.8345009246393664</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:2">
+      <c r="A3455" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B3455">
+        <v>0.8651463566674409</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:2">
+      <c r="A3456" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B3456">
+        <v>0.8639698983351661</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:2">
+      <c r="A3457" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B3457">
+        <v>0.8645815047329282</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:2">
+      <c r="A3458" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B3458">
+        <v>0.8517826479068881</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:2">
+      <c r="A3459" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B3459">
+        <v>0.850056589402153</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:2">
+      <c r="A3460" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B3460">
+        <v>0.8430271236710699</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:2">
+      <c r="A3461" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B3461">
+        <v>0.8423162811383004</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:2">
+      <c r="A3462" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B3462">
+        <v>0.8403174014096447</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:2">
+      <c r="A3463" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B3463">
+        <v>0.8481651283579372</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:2">
+      <c r="A3464" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B3464">
+        <v>0.8535097764219185</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:2">
+      <c r="A3465" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B3465">
+        <v>0.8537166737800121</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:2">
+      <c r="A3466" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B3466">
+        <v>0.8548615570133998</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:2">
+      <c r="A3467" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B3467">
+        <v>0.8575328634369033</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:2">
+      <c r="A3468" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B3468">
+        <v>0.8560322668440213</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:2">
+      <c r="A3469" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B3469">
+        <v>0.8617560932991057</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:2">
+      <c r="A3470" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B3470">
+        <v>0.8607816619638274</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:2">
+      <c r="A3471" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B3471">
+        <v>0.8637524612558206</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3471"/>
+  <dimension ref="A1:B3540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9717893802450223</v>
+        <v>0.9718138005186168</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9369976560047689</v>
+        <v>0.9371010781061261</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.9157817087441882</v>
+        <v>0.915887103439373</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9010872215871703</v>
+        <v>0.9011109753171492</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8844382057591555</v>
+        <v>0.8844484144674374</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8896657929285606</v>
+        <v>0.8895092729572692</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9091888690569869</v>
+        <v>0.9090053416382083</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.9030746499720818</v>
+        <v>0.902977128409468</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8945853787186555</v>
+        <v>0.8944348449226913</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8895878579618401</v>
+        <v>0.8894428006418611</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8984357886086186</v>
+        <v>0.8983553961323838</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.904829997513534</v>
+        <v>0.9047887130441492</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8977136398719514</v>
+        <v>0.8976685163098567</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8971287696978814</v>
+        <v>0.8970658680691446</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.896533382041563</v>
+        <v>0.896432110560856</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8941334620915093</v>
+        <v>0.894025419035416</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9069207127551729</v>
+        <v>0.9068001800839147</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9026561967808878</v>
+        <v>0.9025308740849118</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9386740715909758</v>
+        <v>0.9386412969156506</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9382092285473947</v>
+        <v>0.93817171971021</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371432738873813</v>
+        <v>0.9371159408763312</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348325136578057</v>
+        <v>0.9348044754891709</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9248060457627387</v>
+        <v>0.9247781764297764</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9234796201987868</v>
+        <v>0.923452582107791</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236582443184675</v>
+        <v>0.9236349313400719</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9243886021058911</v>
+        <v>0.9243675598097084</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223315268368673</v>
+        <v>0.9223115875208048</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199320359733799</v>
+        <v>0.9199138381192211</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9190020760027529</v>
+        <v>0.9189850618900363</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154776193971907</v>
+        <v>0.9154602398798584</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9144082814830347</v>
+        <v>0.9143921872529618</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110635360985995</v>
+        <v>0.9110480459132608</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.90968545181023</v>
+        <v>0.9096728129993157</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086813980978863</v>
+        <v>0.9086664480827935</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064191733014929</v>
+        <v>0.9064055886348087</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071943187737813</v>
+        <v>0.9071826833570699</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.9048533036065395</v>
+        <v>0.904842591482695</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.909749603634501</v>
+        <v>0.9097316016727682</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.9052936115495109</v>
+        <v>0.905273330628096</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028911608281226</v>
+        <v>0.902871513592937</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018429357060059</v>
+        <v>0.9018243199164419</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005764048875635</v>
+        <v>0.900559031060489</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8981177839621768</v>
+        <v>0.8981003684779741</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997400362300073</v>
+        <v>0.8997204045109057</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968657280419989</v>
+        <v>0.896845292195539</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956364322137529</v>
+        <v>0.8956149288265467</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896635114516738</v>
+        <v>0.8896418512274914</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888326853155971</v>
+        <v>0.8888145253882768</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8876049712730493</v>
+        <v>0.8875884576756877</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866564330777994</v>
+        <v>0.8866402355978557</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864640481405097</v>
+        <v>0.8864495346760997</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859554185780877</v>
+        <v>0.8859429114144022</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8852048262704277</v>
+        <v>0.8851953847065934</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942349068468929</v>
+        <v>0.8942302722418045</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908186076851679</v>
+        <v>0.8908153577170148</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891201764526089</v>
+        <v>0.8891184215649792</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -28155,6 +28155,558 @@
       </c>
       <c r="B3471">
         <v>0.8637524612558206</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:2">
+      <c r="A3472" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B3472">
+        <v>0.8682056425405914</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:2">
+      <c r="A3473" s="2">
+        <v>43294</v>
+      </c>
+      <c r="B3473">
+        <v>0.8675276562955943</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:2">
+      <c r="A3474" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B3474">
+        <v>0.8663561115599164</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:2">
+      <c r="A3475" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B3475">
+        <v>0.867455180091938</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:2">
+      <c r="A3476" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B3476">
+        <v>0.8638897576661113</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:2">
+      <c r="A3477" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B3477">
+        <v>0.8652183135198122</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:2">
+      <c r="A3478" s="2">
+        <v>43301</v>
+      </c>
+      <c r="B3478">
+        <v>0.8592265259824718</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:2">
+      <c r="A3479" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B3479">
+        <v>0.85919817104628</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:2">
+      <c r="A3480" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B3480">
+        <v>0.8568658719735247</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:2">
+      <c r="A3481" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B3481">
+        <v>0.8583489711273209</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:2">
+      <c r="A3482" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B3482">
+        <v>0.8570525200226262</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:2">
+      <c r="A3483" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B3483">
+        <v>0.8568134792964033</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:2">
+      <c r="A3484" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B3484">
+        <v>0.858261414034031</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:2">
+      <c r="A3485" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B3485">
+        <v>0.8549505339954012</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:2">
+      <c r="A3486" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B3486">
+        <v>0.8556286168619156</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:2">
+      <c r="A3487" s="2">
+        <v>43314</v>
+      </c>
+      <c r="B3487">
+        <v>0.8556011323815448</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:2">
+      <c r="A3488" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B3488">
+        <v>0.8536584638800279</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:2">
+      <c r="A3489" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B3489">
+        <v>0.853869035647013</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:2">
+      <c r="A3490" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B3490">
+        <v>0.8618821559444169</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:2">
+      <c r="A3491" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B3491">
+        <v>0.8612991834981152</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:2">
+      <c r="A3492" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B3492">
+        <v>0.865444970229699</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:2">
+      <c r="A3493" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B3493">
+        <v>0.8660095880949895</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:2">
+      <c r="A3494" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B3494">
+        <v>0.8682223550932676</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:2">
+      <c r="A3495" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B3495">
+        <v>0.8660256519404765</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:2">
+      <c r="A3496" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B3496">
+        <v>0.8688966871178905</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:2">
+      <c r="A3497" s="2">
+        <v>43328</v>
+      </c>
+      <c r="B3497">
+        <v>0.8677087201856637</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:2">
+      <c r="A3498" s="2">
+        <v>43329</v>
+      </c>
+      <c r="B3498">
+        <v>0.869114430930376</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:2">
+      <c r="A3499" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B3499">
+        <v>0.8683681790416634</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:2">
+      <c r="A3500" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B3500">
+        <v>0.871820371776606</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:2">
+      <c r="A3501" s="2">
+        <v>43334</v>
+      </c>
+      <c r="B3501">
+        <v>0.8735213522719487</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:2">
+      <c r="A3502" s="2">
+        <v>43335</v>
+      </c>
+      <c r="B3502">
+        <v>0.8704798328041153</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:2">
+      <c r="A3503" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B3503">
+        <v>0.8670426027124799</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:2">
+      <c r="A3504" s="2">
+        <v>43339</v>
+      </c>
+      <c r="B3504">
+        <v>0.8716537226512704</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:2">
+      <c r="A3505" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B3505">
+        <v>0.8740747654886747</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:2">
+      <c r="A3506" s="2">
+        <v>43341</v>
+      </c>
+      <c r="B3506">
+        <v>0.8725771752054247</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:2">
+      <c r="A3507" s="2">
+        <v>43342</v>
+      </c>
+      <c r="B3507">
+        <v>0.87373838208982</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:2">
+      <c r="A3508" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B3508">
+        <v>0.8745952721335524</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:2">
+      <c r="A3509" s="2">
+        <v>43346</v>
+      </c>
+      <c r="B3509">
+        <v>0.8739007984110244</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:2">
+      <c r="A3510" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B3510">
+        <v>0.8768288713660061</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:2">
+      <c r="A3511" s="2">
+        <v>43348</v>
+      </c>
+      <c r="B3511">
+        <v>0.87757787636188</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:2">
+      <c r="A3512" s="2">
+        <v>43349</v>
+      </c>
+      <c r="B3512">
+        <v>0.8770443791558568</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:2">
+      <c r="A3513" s="2">
+        <v>43350</v>
+      </c>
+      <c r="B3513">
+        <v>0.8770183225997228</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:2">
+      <c r="A3514" s="2">
+        <v>43353</v>
+      </c>
+      <c r="B3514">
+        <v>0.8769049709903374</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:2">
+      <c r="A3515" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B3515">
+        <v>0.8583487941507775</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:2">
+      <c r="A3516" s="2">
+        <v>43355</v>
+      </c>
+      <c r="B3516">
+        <v>0.8605181372040185</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:2">
+      <c r="A3517" s="2">
+        <v>43356</v>
+      </c>
+      <c r="B3517">
+        <v>0.8578730322051648</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:2">
+      <c r="A3518" s="2">
+        <v>43357</v>
+      </c>
+      <c r="B3518">
+        <v>0.8565715060518808</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:2">
+      <c r="A3519" s="2">
+        <v>43360</v>
+      </c>
+      <c r="B3519">
+        <v>0.85720460824832</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:2">
+      <c r="A3520" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B3520">
+        <v>0.8581879513685005</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:2">
+      <c r="A3521" s="2">
+        <v>43362</v>
+      </c>
+      <c r="B3521">
+        <v>0.8605583135053334</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:2">
+      <c r="A3522" s="2">
+        <v>43363</v>
+      </c>
+      <c r="B3522">
+        <v>0.8614581523189929</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:2">
+      <c r="A3523" s="2">
+        <v>43364</v>
+      </c>
+      <c r="B3523">
+        <v>0.8556373135007673</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2">
+      <c r="A3524" s="2">
+        <v>43368</v>
+      </c>
+      <c r="B3524">
+        <v>0.8511043671914222</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:2">
+      <c r="A3525" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B3525">
+        <v>0.8490930529515006</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:2">
+      <c r="A3526" s="2">
+        <v>43370</v>
+      </c>
+      <c r="B3526">
+        <v>0.8492503207225043</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2">
+      <c r="A3527" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B3527">
+        <v>0.8502430976348254</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:2">
+      <c r="A3528" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B3528">
+        <v>0.8631513604536183</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:2">
+      <c r="A3529" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B3529">
+        <v>0.8558613834012427</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:2">
+      <c r="A3530" s="2">
+        <v>43383</v>
+      </c>
+      <c r="B3530">
+        <v>0.8563937724787417</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:2">
+      <c r="A3531" s="2">
+        <v>43384</v>
+      </c>
+      <c r="B3531">
+        <v>0.8807751542123706</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:2">
+      <c r="A3532" s="2">
+        <v>43385</v>
+      </c>
+      <c r="B3532">
+        <v>0.873913189156625</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:2">
+      <c r="A3533" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B3533">
+        <v>0.8744448811234399</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2">
+      <c r="A3534" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B3534">
+        <v>0.8755998944213402</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:2">
+      <c r="A3535" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B3535">
+        <v>0.8741304727514069</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2">
+      <c r="A3536" s="2">
+        <v>43391</v>
+      </c>
+      <c r="B3536">
+        <v>0.8769569663676005</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2">
+      <c r="A3537" s="2">
+        <v>43392</v>
+      </c>
+      <c r="B3537">
+        <v>0.8811878784670156</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2">
+      <c r="A3538" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B3538">
+        <v>0.894859062305994</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2">
+      <c r="A3539" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B3539">
+        <v>0.8948271090407601</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2">
+      <c r="A3540" s="2">
+        <v>43397</v>
+      </c>
+      <c r="B3540">
+        <v>0.893007116703034</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3540"/>
+  <dimension ref="A1:B3561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1890,7 @@
         <v>38358</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9718138005186168</v>
+        <v>0.9717980010189816</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9371010781061261</v>
+        <v>0.9370410702113827</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.915887103439373</v>
+        <v>0.9158144541951605</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9011109753171492</v>
+        <v>0.9010918867343019</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8844484144674374</v>
+        <v>0.884427159381196</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8895092729572692</v>
+        <v>0.88953908035945</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9090053416382083</v>
+        <v>0.9090423544014116</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.902977128409468</v>
+        <v>0.9029909403974979</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8944348449226913</v>
+        <v>0.8944632766383671</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8894428006418611</v>
+        <v>0.8894725371552209</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8983553961323838</v>
+        <v>0.898380941614061</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.9047887130441492</v>
+        <v>0.904808379399904</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8976685163098567</v>
+        <v>0.8976831510719345</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8970658680691446</v>
+        <v>0.8970870662855163</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.896432110560856</v>
+        <v>0.8964660407619066</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.894025419035416</v>
+        <v>0.8940570652434692</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9068001800839147</v>
+        <v>0.9068377161713805</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9025308740849118</v>
+        <v>0.9025719692350711</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9386412969156506</v>
+        <v>0.9386507343027792</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.93817171971021</v>
+        <v>0.9381824631779907</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371159408763312</v>
+        <v>0.9371242927556109</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348044754891709</v>
+        <v>0.9348138936910508</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9247781764297764</v>
+        <v>0.9247840207553546</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.923452582107791</v>
+        <v>0.9234585514191991</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236349313400719</v>
+        <v>0.9236391573933564</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9243675598097084</v>
+        <v>0.9243709517017747</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223115875208048</v>
+        <v>0.9223132857700743</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199138381192211</v>
+        <v>0.919915630036905</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9189850618900363</v>
+        <v>0.9189864705408219</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154602398798584</v>
+        <v>0.915459963377404</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9143921872529618</v>
+        <v>0.9143911187227344</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110480459132608</v>
+        <v>0.9110497236608442</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.9096728129993157</v>
+        <v>0.9096737319200314</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086664480827935</v>
+        <v>0.908667495999963</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064055886348087</v>
+        <v>0.9064051749387155</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071826833570699</v>
+        <v>0.9071817711264771</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.904842591482695</v>
+        <v>0.9048403528617983</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097316016727682</v>
+        <v>0.9097313139854335</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.905273330628096</v>
+        <v>0.9052733004225677</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.902871513592937</v>
+        <v>0.9028708214859408</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018243199164419</v>
+        <v>0.9018232560694548</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.900559031060489</v>
+        <v>0.9005585224155354</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8981003684779741</v>
+        <v>0.8980995852583888</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997204045109057</v>
+        <v>0.899721045851093</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.896845292195539</v>
+        <v>0.8968464341382053</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956149288265467</v>
+        <v>0.8956168021524488</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896418512274914</v>
+        <v>0.8896442591516514</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888145253882768</v>
+        <v>0.8888169581980419</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8875884576756877</v>
+        <v>0.8875910485675891</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866402355978557</v>
+        <v>0.8866427787648086</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864495346760997</v>
+        <v>0.8864519215917152</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859429114144022</v>
+        <v>0.8859451549531213</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8851953847065934</v>
+        <v>0.8851970114684463</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942302722418045</v>
+        <v>0.8942308259158506</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908153577170148</v>
+        <v>0.8908157554917358</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891184215649792</v>
+        <v>0.8891186563624414</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -28707,6 +28707,174 @@
       </c>
       <c r="B3540">
         <v>0.893007116703034</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2">
+      <c r="A3541" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B3541">
+        <v>0.8913050507434028</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2">
+      <c r="A3542" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B3542">
+        <v>0.8909851150527947</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2">
+      <c r="A3543" s="2">
+        <v>43402</v>
+      </c>
+      <c r="B3543">
+        <v>0.8922999212063004</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2">
+      <c r="A3544" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B3544">
+        <v>0.8920402265836044</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2">
+      <c r="A3545" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B3545">
+        <v>0.8924298904563235</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2">
+      <c r="A3546" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B3546">
+        <v>0.8929443084471441</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:2">
+      <c r="A3547" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B3547">
+        <v>0.8991311011503472</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2">
+      <c r="A3548" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B3548">
+        <v>0.8990513864379203</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2">
+      <c r="A3549" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B3549">
+        <v>0.8997999877943218</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2">
+      <c r="A3550" s="2">
+        <v>43411</v>
+      </c>
+      <c r="B3550">
+        <v>0.8974071663265643</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2">
+      <c r="A3551" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B3551">
+        <v>0.8968150069310662</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2">
+      <c r="A3552" s="2">
+        <v>43413</v>
+      </c>
+      <c r="B3552">
+        <v>0.8933379789478918</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:2">
+      <c r="A3553" s="2">
+        <v>43416</v>
+      </c>
+      <c r="B3553">
+        <v>0.8959332671005499</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2">
+      <c r="A3554" s="2">
+        <v>43417</v>
+      </c>
+      <c r="B3554">
+        <v>0.8966309602296718</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:2">
+      <c r="A3555" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B3555">
+        <v>0.8965386116999795</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:2">
+      <c r="A3556" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B3556">
+        <v>0.8957711747855516</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:2">
+      <c r="A3557" s="2">
+        <v>43420</v>
+      </c>
+      <c r="B3557">
+        <v>0.8963887009371808</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:2">
+      <c r="A3558" s="2">
+        <v>43423</v>
+      </c>
+      <c r="B3558">
+        <v>0.8945088268200452</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:2">
+      <c r="A3559" s="2">
+        <v>43424</v>
+      </c>
+      <c r="B3559">
+        <v>0.8995728407351884</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2">
+      <c r="A3560" s="2">
+        <v>43425</v>
+      </c>
+      <c r="B3560">
+        <v>0.8981118193846961</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2">
+      <c r="A3561" s="2">
+        <v>43426</v>
+      </c>
+      <c r="B3561">
+        <v>0.8978551885108769</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3561"/>
+  <dimension ref="A1:B3594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1890,7 @@
         <v>38358</v>
       </c>
       <c r="B188">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9717980010189816</v>
+        <v>0.9717818791140688</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9370410702113827</v>
+        <v>0.9370265124541516</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.9158144541951605</v>
+        <v>0.915796314510104</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9010918867343019</v>
+        <v>0.9010853110704551</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.884427159381196</v>
+        <v>0.8844306407152225</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.88953908035945</v>
+        <v>0.8895195873626806</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9090423544014116</v>
+        <v>0.9089879886809907</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.9029909403974979</v>
+        <v>0.9029570908041287</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8944632766383671</v>
+        <v>0.8944094180730422</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8894725371552209</v>
+        <v>0.8894078354229757</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.898380941614061</v>
+        <v>0.8983571656094672</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.904808379399904</v>
+        <v>0.9047964871675438</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8976831510719345</v>
+        <v>0.8976607067376796</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8970870662855163</v>
+        <v>0.8970557262156652</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.8964660407619066</v>
+        <v>0.8964196007766611</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8940570652434692</v>
+        <v>0.8940039663110041</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9068377161713805</v>
+        <v>0.9067852529527735</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9025719692350711</v>
+        <v>0.9025195103383523</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9386507343027792</v>
+        <v>0.9386371681948359</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9381824631779907</v>
+        <v>0.9381639205096088</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371242927556109</v>
+        <v>0.9371107112027671</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348138936910508</v>
+        <v>0.9348038638359563</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9247840207553546</v>
+        <v>0.9247748778998813</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9234585514191991</v>
+        <v>0.9234483239526919</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236391573933564</v>
+        <v>0.9236335998668848</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9243709517017747</v>
+        <v>0.9243706616313816</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223132857700743</v>
+        <v>0.9223143831341565</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.919915630036905</v>
+        <v>0.9199164869264632</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9189864705408219</v>
+        <v>0.9189870996888696</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.915459963377404</v>
+        <v>0.9154615825628584</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9143911187227344</v>
+        <v>0.9143929268913811</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110497236608442</v>
+        <v>0.911050260472351</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.9096737319200314</v>
+        <v>0.9096745110223279</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.908667495999963</v>
+        <v>0.9086677767208712</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064051749387155</v>
+        <v>0.9064058434958001</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071817711264771</v>
+        <v>0.9071836189463809</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.9048403528617983</v>
+        <v>0.9048420694648307</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097313139854335</v>
+        <v>0.9097300763265554</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.9052733004225677</v>
+        <v>0.9052715650129843</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028708214859408</v>
+        <v>0.9028691275729213</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018232560694548</v>
+        <v>0.9018208068594643</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005585224155354</v>
+        <v>0.9005558319414925</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8980995852583888</v>
+        <v>0.8980963694255844</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.899721045851093</v>
+        <v>0.8997170514504836</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968464341382053</v>
+        <v>0.8968421893999886</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956168021524488</v>
+        <v>0.8956118822192385</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896442591516514</v>
+        <v>0.8896393058503804</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888169581980419</v>
+        <v>0.8888129890245234</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8875910485675891</v>
+        <v>0.8875874603190506</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866427787648086</v>
+        <v>0.8866395232951</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864519215917152</v>
+        <v>0.8864487408895683</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859451549531213</v>
+        <v>0.8859419396308164</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8851970114684463</v>
+        <v>0.8851946055912894</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942308259158506</v>
+        <v>0.8942297373361743</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908157554917358</v>
+        <v>0.8908149193442446</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891186563624414</v>
+        <v>0.8891181922431562</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -28875,6 +28875,270 @@
       </c>
       <c r="B3561">
         <v>0.8978551885108769</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2">
+      <c r="A3562" s="2">
+        <v>43427</v>
+      </c>
+      <c r="B3562">
+        <v>0.9029337007785574</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2">
+      <c r="A3563" s="2">
+        <v>43430</v>
+      </c>
+      <c r="B3563">
+        <v>0.9030467347824984</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2">
+      <c r="A3564" s="2">
+        <v>43431</v>
+      </c>
+      <c r="B3564">
+        <v>0.9009990401439535</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2">
+      <c r="A3565" s="2">
+        <v>43432</v>
+      </c>
+      <c r="B3565">
+        <v>0.9015850520486064</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2">
+      <c r="A3566" s="2">
+        <v>43433</v>
+      </c>
+      <c r="B3566">
+        <v>0.9020186307526832</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2">
+      <c r="A3567" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B3567">
+        <v>0.9020283595916144</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2">
+      <c r="A3568" s="2">
+        <v>43437</v>
+      </c>
+      <c r="B3568">
+        <v>0.905885749947853</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2">
+      <c r="A3569" s="2">
+        <v>43438</v>
+      </c>
+      <c r="B3569">
+        <v>0.9062632178760016</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2">
+      <c r="A3570" s="2">
+        <v>43439</v>
+      </c>
+      <c r="B3570">
+        <v>0.9056153669276772</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2">
+      <c r="A3571" s="2">
+        <v>43440</v>
+      </c>
+      <c r="B3571">
+        <v>0.9049665477570055</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2">
+      <c r="A3572" s="2">
+        <v>43441</v>
+      </c>
+      <c r="B3572">
+        <v>0.9033750559416551</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2">
+      <c r="A3573" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B3573">
+        <v>0.9039325411401787</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2">
+      <c r="A3574" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B3574">
+        <v>0.9034119155716415</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2">
+      <c r="A3575" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B3575">
+        <v>0.9039292701682237</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2">
+      <c r="A3576" s="2">
+        <v>43447</v>
+      </c>
+      <c r="B3576">
+        <v>0.9029757771115765</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:2">
+      <c r="A3577" s="2">
+        <v>43448</v>
+      </c>
+      <c r="B3577">
+        <v>0.9061403888705454</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2">
+      <c r="A3578" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B3578">
+        <v>0.9069190701197416</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2">
+      <c r="A3579" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B3579">
+        <v>0.9064430526855313</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2">
+      <c r="A3580" s="2">
+        <v>43453</v>
+      </c>
+      <c r="B3580">
+        <v>0.9070318045515193</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2">
+      <c r="A3581" s="2">
+        <v>43454</v>
+      </c>
+      <c r="B3581">
+        <v>0.9066354169581148</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:2">
+      <c r="A3582" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B3582">
+        <v>0.9065663597322122</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2">
+      <c r="A3583" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B3583">
+        <v>0.9048399075348482</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:2">
+      <c r="A3584" s="2">
+        <v>43459</v>
+      </c>
+      <c r="B3584">
+        <v>0.9056326396573001</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:2">
+      <c r="A3585" s="2">
+        <v>43460</v>
+      </c>
+      <c r="B3585">
+        <v>0.9049998143571411</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:2">
+      <c r="A3586" s="2">
+        <v>43461</v>
+      </c>
+      <c r="B3586">
+        <v>0.9052032076173131</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:2">
+      <c r="A3587" s="2">
+        <v>43462</v>
+      </c>
+      <c r="B3587">
+        <v>0.9046381136072567</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:2">
+      <c r="A3588" s="2">
+        <v>43467</v>
+      </c>
+      <c r="B3588">
+        <v>0.8989767218922834</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:2">
+      <c r="A3589" s="2">
+        <v>43468</v>
+      </c>
+      <c r="B3589">
+        <v>0.8986138910519492</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:2">
+      <c r="A3590" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B3590">
+        <v>0.9008204700120278</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:2">
+      <c r="A3591" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B3591">
+        <v>0.8789342621033425</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:2">
+      <c r="A3592" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B3592">
+        <v>0.8798776459280352</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:2">
+      <c r="A3593" s="2">
+        <v>43474</v>
+      </c>
+      <c r="B3593">
+        <v>0.8776972107536053</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:2">
+      <c r="A3594" s="2">
+        <v>43475</v>
+      </c>
+      <c r="B3594">
+        <v>0.8764621574153306</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3594"/>
+  <dimension ref="A1:B3616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9717818791140688</v>
+        <v>0.9717921926284734</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9370265124541516</v>
+        <v>0.9370407131093457</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.915796314510104</v>
+        <v>0.9158079556735912</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9010853110704551</v>
+        <v>0.9010917291730042</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8844306407152225</v>
+        <v>0.8844391337287871</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8895195873626806</v>
+        <v>0.8895864083844216</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9089879886809907</v>
+        <v>0.9090819095201345</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.9029570908041287</v>
+        <v>0.903022208856872</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8944094180730422</v>
+        <v>0.8944910111884172</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8894078354229757</v>
+        <v>0.8895002093158139</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8983571656094672</v>
+        <v>0.8984036622049429</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.9047964871675438</v>
+        <v>0.904825726398776</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8976607067376796</v>
+        <v>0.8976946724422475</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8970557262156652</v>
+        <v>0.8970935535814338</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.8964196007766611</v>
+        <v>0.8964660383598275</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8940039663110041</v>
+        <v>0.8940585237838424</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9067852529527735</v>
+        <v>0.9068412565469856</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9025195103383523</v>
+        <v>0.9025775874874618</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9386371681948359</v>
+        <v>0.9386517483078164</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9381639205096088</v>
+        <v>0.9381807532025245</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371107112027671</v>
+        <v>0.9371212891407257</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348038638359563</v>
+        <v>0.9348141336281772</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9247748778998813</v>
+        <v>0.9247894238816737</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9234483239526919</v>
+        <v>0.9234631341006918</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236335998668848</v>
+        <v>0.9236453732780749</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.9243706616313816</v>
+        <v>0.924377855584461</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223143831341565</v>
+        <v>0.9223198789327377</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199164869264632</v>
+        <v>0.9199196787205892</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9189870996888696</v>
+        <v>0.9189910155050234</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154615825628584</v>
+        <v>0.9154658524581079</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.9143929268913811</v>
+        <v>0.914398530814418</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.911050260472351</v>
+        <v>0.9110550034699132</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.9096745110223279</v>
+        <v>0.9096772977904972</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086677767208712</v>
+        <v>0.9086716075525967</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064058434958001</v>
+        <v>0.9064104076281232</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071836189463809</v>
+        <v>0.9071856946662342</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.9048420694648307</v>
+        <v>0.9048436017410848</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097300763265554</v>
+        <v>0.9097347933406527</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.9052715650129843</v>
+        <v>0.9052759179124111</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028691275729213</v>
+        <v>0.9028742944749875</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018208068594643</v>
+        <v>0.9018271345610169</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005558319414925</v>
+        <v>0.9005621309585142</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8980963694255844</v>
+        <v>0.8981027945726192</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997170514504836</v>
+        <v>0.8997237668873295</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968421893999886</v>
+        <v>0.8968486329270766</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956118822192385</v>
+        <v>0.8956192418981117</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896393058503804</v>
+        <v>0.8896461477088066</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888129890245234</v>
+        <v>0.8888186372311004</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8875874603190506</v>
+        <v>0.8875924242061424</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866395232951</v>
+        <v>0.8866444254449679</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864487408895683</v>
+        <v>0.8864532656845918</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859419396308164</v>
+        <v>0.8859462381634738</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8851946055912894</v>
+        <v>0.8851977410640796</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942297373361743</v>
+        <v>0.8942312482087569</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908149193442446</v>
+        <v>0.8908160723371474</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891181922431562</v>
+        <v>0.8891187984952545</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -29139,6 +29139,182 @@
       </c>
       <c r="B3594">
         <v>0.8764621574153306</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:2">
+      <c r="A3595" s="2">
+        <v>43476</v>
+      </c>
+      <c r="B3595">
+        <v>0.8804193553852623</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:2">
+      <c r="A3596" s="2">
+        <v>43479</v>
+      </c>
+      <c r="B3596">
+        <v>0.8767204670114727</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:2">
+      <c r="A3597" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B3597">
+        <v>0.8756784400760398</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:2">
+      <c r="A3598" s="2">
+        <v>43481</v>
+      </c>
+      <c r="B3598">
+        <v>0.856609456611116</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:2">
+      <c r="A3599" s="2">
+        <v>43482</v>
+      </c>
+      <c r="B3599">
+        <v>0.8544736872451284</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:2">
+      <c r="A3600" s="2">
+        <v>43483</v>
+      </c>
+      <c r="B3600">
+        <v>0.8549148681909458</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:2">
+      <c r="A3601" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B3601">
+        <v>0.8587633176231774</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:2">
+      <c r="A3602" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B3602">
+        <v>0.8627430404965579</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:2">
+      <c r="A3603" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B3603">
+        <v>0.8576081715232083</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:2">
+      <c r="A3604" s="2">
+        <v>43489</v>
+      </c>
+      <c r="B3604">
+        <v>0.8572843994141196</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:2">
+      <c r="A3605" s="2">
+        <v>43490</v>
+      </c>
+      <c r="B3605">
+        <v>0.8566315497263918</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:2">
+      <c r="A3606" s="2">
+        <v>43493</v>
+      </c>
+      <c r="B3606">
+        <v>0.8574919598444956</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:2">
+      <c r="A3607" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B3607">
+        <v>0.8442943434838488</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:2">
+      <c r="A3608" s="2">
+        <v>43495</v>
+      </c>
+      <c r="B3608">
+        <v>0.8462637232931054</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:2">
+      <c r="A3609" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B3609">
+        <v>0.8465614513326064</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2">
+      <c r="A3610" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B3610">
+        <v>0.8536455614849444</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:2">
+      <c r="A3611" s="2">
+        <v>43507</v>
+      </c>
+      <c r="B3611">
+        <v>0.8588889897361625</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:2">
+      <c r="A3612" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B3612">
+        <v>0.8595009732648287</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2">
+      <c r="A3613" s="2">
+        <v>43509</v>
+      </c>
+      <c r="B3613">
+        <v>0.8563953595874516</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:2">
+      <c r="A3614" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B3614">
+        <v>0.8557638524238766</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:2">
+      <c r="A3615" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B3615">
+        <v>0.856428778961133</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:2">
+      <c r="A3616" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B3616">
+        <v>0.8663079556674016</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/consistency.xlsx
+++ b/website/everyday-update/data/consistency.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3616"/>
+  <dimension ref="A1:B3636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1882,7 @@
         <v>38357</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>38359</v>
       </c>
       <c r="B189">
-        <v>0.9717921926284734</v>
+        <v>0.9717999131618703</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>38362</v>
       </c>
       <c r="B190">
-        <v>0.9370407131093457</v>
+        <v>0.9370084811193715</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>38363</v>
       </c>
       <c r="B191">
-        <v>0.9158079556735912</v>
+        <v>0.9157760096298618</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>38364</v>
       </c>
       <c r="B192">
-        <v>0.9010917291730042</v>
+        <v>0.9010806021592506</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>38365</v>
       </c>
       <c r="B193">
-        <v>0.8844391337287871</v>
+        <v>0.8844004435987117</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>38366</v>
       </c>
       <c r="B194">
-        <v>0.8895864083844216</v>
+        <v>0.8896544561703357</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>38369</v>
       </c>
       <c r="B195">
-        <v>0.9090819095201345</v>
+        <v>0.9092006561296896</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>38370</v>
       </c>
       <c r="B196">
-        <v>0.903022208856872</v>
+        <v>0.9030877038671588</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>38371</v>
       </c>
       <c r="B197">
-        <v>0.8944910111884172</v>
+        <v>0.8945955739194885</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>38372</v>
       </c>
       <c r="B198">
-        <v>0.8895002093158139</v>
+        <v>0.889627482430277</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>38373</v>
       </c>
       <c r="B199">
-        <v>0.8984036622049429</v>
+        <v>0.8984362364700812</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>38376</v>
       </c>
       <c r="B200">
-        <v>0.904825726398776</v>
+        <v>0.9048375036526604</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>38377</v>
       </c>
       <c r="B201">
-        <v>0.8976946724422475</v>
+        <v>0.897717282653996</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>38378</v>
       </c>
       <c r="B202">
-        <v>0.8970935535814338</v>
+        <v>0.8971374782876779</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>38379</v>
       </c>
       <c r="B203">
-        <v>0.8964660383598275</v>
+        <v>0.8965332523145585</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>38380</v>
       </c>
       <c r="B204">
-        <v>0.8940585237838424</v>
+        <v>0.8941390245778976</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>38383</v>
       </c>
       <c r="B205">
-        <v>0.9068412565469856</v>
+        <v>0.9069295362216617</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>38384</v>
       </c>
       <c r="B206">
-        <v>0.9025775874874618</v>
+        <v>0.9026738914605588</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>38385</v>
       </c>
       <c r="B207">
-        <v>0.9386517483078164</v>
+        <v>0.9386694341628747</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>38386</v>
       </c>
       <c r="B208">
-        <v>0.9381807532025245</v>
+        <v>0.9382029465722311</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>38387</v>
       </c>
       <c r="B209">
-        <v>0.9371212891407257</v>
+        <v>0.9371352673062439</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>38399</v>
       </c>
       <c r="B210">
-        <v>0.9348141336281772</v>
+        <v>0.9348262720787212</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>38400</v>
       </c>
       <c r="B211">
-        <v>0.9247894238816737</v>
+        <v>0.9247952893373511</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>38401</v>
       </c>
       <c r="B212">
-        <v>0.9234631341006918</v>
+        <v>0.9234701082646636</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>38404</v>
       </c>
       <c r="B213">
-        <v>0.9236453732780749</v>
+        <v>0.9236460108264765</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>38405</v>
       </c>
       <c r="B214">
-        <v>0.924377855584461</v>
+        <v>0.9243729288370887</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>38406</v>
       </c>
       <c r="B215">
-        <v>0.9223198789327377</v>
+        <v>0.9223122067286879</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>38407</v>
       </c>
       <c r="B216">
-        <v>0.9199196787205892</v>
+        <v>0.9199124170341668</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>38408</v>
       </c>
       <c r="B217">
-        <v>0.9189910155050234</v>
+        <v>0.9189845223167763</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>38411</v>
       </c>
       <c r="B218">
-        <v>0.9154658524581079</v>
+        <v>0.9154603249472869</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>38412</v>
       </c>
       <c r="B219">
-        <v>0.914398530814418</v>
+        <v>0.9143942076998965</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>38413</v>
       </c>
       <c r="B220">
-        <v>0.9110550034699132</v>
+        <v>0.9110537832958813</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>38414</v>
       </c>
       <c r="B221">
-        <v>0.9096772977904972</v>
+        <v>0.9096752808481788</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>38415</v>
       </c>
       <c r="B222">
-        <v>0.9086716075525967</v>
+        <v>0.9086712941439786</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>38418</v>
       </c>
       <c r="B223">
-        <v>0.9064104076281232</v>
+        <v>0.906408582556069</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>38419</v>
       </c>
       <c r="B224">
-        <v>0.9071856946662342</v>
+        <v>0.907182137630366</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>38420</v>
       </c>
       <c r="B225">
-        <v>0.9048436017410848</v>
+        <v>0.9048379569346228</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>38421</v>
       </c>
       <c r="B226">
-        <v>0.9097347933406527</v>
+        <v>0.9097349552747426</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>38422</v>
       </c>
       <c r="B227">
-        <v>0.9052759179124111</v>
+        <v>0.9052764992917276</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>38425</v>
       </c>
       <c r="B228">
-        <v>0.9028742944749875</v>
+        <v>0.9028737841172404</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>38426</v>
       </c>
       <c r="B229">
-        <v>0.9018271345610169</v>
+        <v>0.9018287078776814</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>38427</v>
       </c>
       <c r="B230">
-        <v>0.9005621309585142</v>
+        <v>0.9005657317826723</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>38428</v>
       </c>
       <c r="B231">
-        <v>0.8981027945726192</v>
+        <v>0.8981078008153455</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>38429</v>
       </c>
       <c r="B232">
-        <v>0.8997237668873295</v>
+        <v>0.8997307213608012</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>38432</v>
       </c>
       <c r="B233">
-        <v>0.8968486329270766</v>
+        <v>0.8968560222928733</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>38433</v>
       </c>
       <c r="B234">
-        <v>0.8956192418981117</v>
+        <v>0.8956280892660591</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>38434</v>
       </c>
       <c r="B235">
-        <v>0.8896461477088066</v>
+        <v>0.8896544703772001</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>38435</v>
       </c>
       <c r="B236">
-        <v>0.8888186372311004</v>
+        <v>0.8888258263822995</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>38436</v>
       </c>
       <c r="B237">
-        <v>0.8875924242061424</v>
+        <v>0.8875993878192046</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>38439</v>
       </c>
       <c r="B238">
-        <v>0.8866444254449679</v>
+        <v>0.8866511816434263</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>38440</v>
       </c>
       <c r="B239">
-        <v>0.8864532656845918</v>
+        <v>0.8864595635254054</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>38441</v>
       </c>
       <c r="B240">
-        <v>0.8859462381634738</v>
+        <v>0.8859523975019652</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>38442</v>
       </c>
       <c r="B241">
-        <v>0.8851977410640796</v>
+        <v>0.8852022039037539</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>38443</v>
       </c>
       <c r="B242">
-        <v>0.8942312482087569</v>
+        <v>0.8942331870742202</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>38446</v>
       </c>
       <c r="B243">
-        <v>0.8908160723371474</v>
+        <v>0.8908175937476547</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>38447</v>
       </c>
       <c r="B244">
-        <v>0.8891187984952545</v>
+        <v>0.8891196077166867</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -29315,6 +29315,166 @@
       </c>
       <c r="B3616">
         <v>0.8663079556674016</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:2">
+      <c r="A3617" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B3617">
+        <v>0.8670484817700717</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2">
+      <c r="A3618" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B3618">
+        <v>0.8656880338289724</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:2">
+      <c r="A3619" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B3619">
+        <v>0.8593080306125315</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:2">
+      <c r="A3620" s="2">
+        <v>43518</v>
+      </c>
+      <c r="B3620">
+        <v>0.8567702895646473</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2">
+      <c r="A3621" s="2">
+        <v>43521</v>
+      </c>
+      <c r="B3621">
+        <v>0.8809837447824462</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:2">
+      <c r="A3622" s="2">
+        <v>43522</v>
+      </c>
+      <c r="B3622">
+        <v>0.8623426592565576</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:2">
+      <c r="A3623" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B3623">
+        <v>0.8588507852099576</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:2">
+      <c r="A3624" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B3624">
+        <v>0.8567152184378225</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2">
+      <c r="A3625" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B3625">
+        <v>0.8550538663728584</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:2">
+      <c r="A3626" s="2">
+        <v>43528</v>
+      </c>
+      <c r="B3626">
+        <v>0.8501231534801954</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:2">
+      <c r="A3627" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B3627">
+        <v>0.8518242251406325</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2">
+      <c r="A3628" s="2">
+        <v>43530</v>
+      </c>
+      <c r="B3628">
+        <v>0.8438271300637131</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2">
+      <c r="A3629" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B3629">
+        <v>0.8432025096895317</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2">
+      <c r="A3630" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B3630">
+        <v>0.8605427216826961</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:2">
+      <c r="A3631" s="2">
+        <v>43535</v>
+      </c>
+      <c r="B3631">
+        <v>0.8600784391932069</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2">
+      <c r="A3632" s="2">
+        <v>43536</v>
+      </c>
+      <c r="B3632">
+        <v>0.8613799570533291</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:2">
+      <c r="A3633" s="2">
+        <v>43537</v>
+      </c>
+      <c r="B3633">
+        <v>0.8603880914407961</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:2">
+      <c r="A3634" s="2">
+        <v>43538</v>
+      </c>
+      <c r="B3634">
+        <v>0.8651130121686499</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:2">
+      <c r="A3635" s="2">
+        <v>43539</v>
+      </c>
+      <c r="B3635">
+        <v>0.8631769614399155</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:2">
+      <c r="A3636" s="2">
+        <v>43542</v>
+      </c>
+      <c r="B3636">
+        <v>0.8630275210610596</v>
       </c>
     </row>
   </sheetData>
